--- a/Homework2/data.xlsx
+++ b/Homework2/data.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="costo" sheetId="1" r:id="rId1"/>
+    <sheet name="distancias" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -573,7 +573,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
